--- a/src/test/resources/test_people.xlsx
+++ b/src/test/resources/test_people.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zikani\projects\labs\zerocell\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zikani\projects\labs\zerocell\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Mpulula</t>
+  </si>
+  <si>
+    <t>FAV_NUMBER</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +419,7 @@
     <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,8 +435,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -449,8 +455,11 @@
       <c r="E2" s="1">
         <v>34062</v>
       </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -463,8 +472,11 @@
       <c r="E3" s="1">
         <v>34475</v>
       </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -480,8 +492,11 @@
       <c r="E4" s="1">
         <v>32198</v>
       </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -497,8 +512,11 @@
       <c r="E5" s="1">
         <v>31507</v>
       </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -513,6 +531,9 @@
       </c>
       <c r="E6" s="1">
         <v>33613</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/test_people.xlsx
+++ b/src/test/resources/test_people.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>FAV_NUMBER</t>
+  </si>
+  <si>
+    <t>DATE_REGISTERED</t>
   </si>
 </sst>
 </file>
@@ -405,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,9 +420,10 @@
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +442,11 @@
       <c r="F1" t="s">
         <v>19</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -458,8 +465,11 @@
       <c r="F2">
         <v>3</v>
       </c>
+      <c r="G2" s="1">
+        <v>40909</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -475,8 +485,11 @@
       <c r="F3">
         <v>2</v>
       </c>
+      <c r="G3" s="1">
+        <v>42339</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -495,8 +508,11 @@
       <c r="F4">
         <v>4</v>
       </c>
+      <c r="G4" s="1">
+        <v>42675</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -515,8 +531,11 @@
       <c r="F5">
         <v>10</v>
       </c>
+      <c r="G5" s="1">
+        <v>42430</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -534,6 +553,9 @@
       </c>
       <c r="F6">
         <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>42644</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/test_people.xlsx
+++ b/src/test/resources/test_people.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zikani\projects\labs\zerocell\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zikani\projects\zerocell\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,12 +32,6 @@
     <t>FIRST_NAME</t>
   </si>
   <si>
-    <t>MIDDLENAME</t>
-  </si>
-  <si>
-    <t>LASTNAME</t>
-  </si>
-  <si>
     <t>DATE_OF_BIRTH</t>
   </si>
   <si>
@@ -87,6 +81,12 @@
   </si>
   <si>
     <t>DATE_REGISTERED</t>
+  </si>
+  <si>
+    <t>MIDDLE_NAME</t>
+  </si>
+  <si>
+    <t>LAST_NAME</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,19 +431,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -451,13 +451,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1">
         <v>34062</v>
@@ -474,10 +474,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1">
         <v>34475</v>
@@ -494,13 +494,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1">
         <v>32198</v>
@@ -517,13 +517,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1">
         <v>31507</v>
@@ -540,13 +540,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
       </c>
       <c r="E6" s="1">
         <v>33613</v>
